--- a/faq.xlsx
+++ b/faq.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
   <si>
     <t>Question</t>
   </si>
@@ -259,15 +259,37 @@
   <si>
     <t>Hi!, I'm Mr .James, I'm the official FAQ Bot for the Modum Slack :slightly_smiling_face:</t>
   </si>
+  <si>
+    <t>When do I get my tokens?</t>
+  </si>
+  <si>
+    <t>When will tokens be distributed?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -290,8 +312,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -299,7 +325,11 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -592,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -909,8 +939,25 @@
         <v>73</v>
       </c>
     </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/faq.xlsx
+++ b/faq.xlsx
@@ -182,15 +182,9 @@
     <t>How can I participate in the modum token sale?</t>
   </si>
   <si>
-    <t>Please visit modum.io/how-to-invest-in-modum</t>
-  </si>
-  <si>
     <t>How can I participate in the modum token pre-sale?</t>
   </si>
   <si>
-    <t>The pre-sale phase (before September 1st) is invite only. We strive for a solid and organically grown community around modum.io. That’s why we have limited the pre-sale to a small group of people who were invited to the pre-sale. The public token sale starts on September 1st and ends on September 22 nd.</t>
-  </si>
-  <si>
     <t>Which wallets can be used to store MOD tokens?</t>
   </si>
   <si>
@@ -264,6 +258,12 @@
   </si>
   <si>
     <t>When will tokens be distributed?</t>
+  </si>
+  <si>
+    <t>The pre-sale phase (before September 1st) is invite only. We strive for a solid and organically grown community around modum.io. That’s why we have limited the pre-sale to a small group of people who were invited to the pre-sale. The public token sale started on September 1st and ends on September 22 nd.</t>
+  </si>
+  <si>
+    <t>See modum.io/how-to-invest-in-modum</t>
   </si>
 </sst>
 </file>
@@ -625,7 +625,7 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -832,116 +832,116 @@
         <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="28">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="28">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="28">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>39</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>39</v>

--- a/faq.xlsx
+++ b/faq.xlsx
@@ -625,7 +625,7 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
